--- a/backend/output_timetables/sem5_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_pre_mid_timetable.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,27 +477,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>DS303</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -506,27 +509,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>DS302</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>DS303</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302</t>
         </is>
       </c>
     </row>
@@ -570,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +583,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -590,7 +593,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
     </row>
@@ -602,12 +605,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -622,7 +625,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
     </row>
@@ -639,7 +642,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -649,7 +652,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -666,22 +669,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -701,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,32 +762,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -806,22 +809,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**DS302**</t>
+          <t>**DS303**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>Algorithms and Data Structures</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Shirshendu Layek</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -831,7 +834,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -863,7 +866,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -900,17 +903,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**DS303**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -920,12 +923,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>2/1</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0/0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -957,7 +960,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -994,47 +997,1840 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>**DS302**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Computer Communication</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Total Courses: 6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Complete: 0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rate: 0.0%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lectures: 12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Labs: 4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[WARN] 6 issues</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Computer Communication</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/1/2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1/2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Total Courses: 5</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Complete: 0</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rate: 0.0%</t>
+          <t>3/0/0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lectures: 10</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Labs: 4</t>
+          <t>0/0/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[WARN] 5 issues</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 3, Elective: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/6 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 60.0%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 33.0/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Computer Communication</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Environmental Studies</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_pre_mid_timetable.xlsx
@@ -9,9 +9,16 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Room_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Classroom_Allocation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LTPSC_Compliance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Executive_Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Allocation" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Basket_Courses" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Classroom_Utilization" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Section_A" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Basket_Course_Allocations" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>DS302 [C004]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DS302 [C004]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS307 [C004]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS307 [C004]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>DS303</t>
         </is>
       </c>
     </row>
@@ -509,27 +516,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>DS303 [C004]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS303 [C004]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -593,7 +600,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -605,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>DS302 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,7 +632,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -642,7 +649,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -652,7 +659,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>CS307 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -669,27 +676,1927 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>DS303 (Tutorial) [C004]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [C305]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DS302 [C004]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DS302 [C004]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS307 [C004]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS307 [C004]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS303 [C004]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS303 [C004]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial) [C004]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L403]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial) [C004]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [C305]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>CS307 (Lab) [L407]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C002, C102, C302, C303, C304</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C003, C104, C303, C304, C305</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C004, C101, C304, C305</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C001, C305, L402</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C002, C004, C304, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C003, C004, C305, L402, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C004, C104, L402, L403, L404, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C002, C102, C302, C303, C304</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C003, C104, C303, C304, C305</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C004, C101, C304, C305</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C001, C305, L402</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C002, C004, C304, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C003, C004, C305, L402, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>C004, C102, L402, L403, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C004, C104, L402, L403, L404, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C004, C101, L403, L404, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C001, C004, L404, L405, L406</t>
         </is>
       </c>
     </row>
@@ -762,32 +2669,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B3**</t>
+          <t>**DS302**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Computer Communication</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Shirshendu Layek</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -802,7 +2709,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C305, C004</t>
         </is>
       </c>
     </row>
@@ -849,14 +2756,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -903,32 +2810,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -997,34 +2904,34 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**DS302**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Shirshendu Layek</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>2/1</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>No</t>
@@ -1037,7 +2944,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>L406, C004</t>
         </is>
       </c>
     </row>
@@ -1094,6 +3001,6719 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Sessions</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Courses Assigned</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Sample Courses</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization (Sessions/Day)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial), DS302, DS302 (Tutorial)...</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>5</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>5</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>5</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>5</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>5</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>5</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>5</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>5</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>5</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>5</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>5</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>5</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>5</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>5</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>5</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>5</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>5</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>5</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>5</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>5</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1511,7 +10131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1580,7 +10200,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-13 16:20</t>
+          <t>2026-01-18 11:33</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1644,12 +10264,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0/35</t>
+          <t>3/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 0.0%</t>
+          <t>Utilization: 8.3%</t>
         </is>
       </c>
     </row>
@@ -1702,7 +10322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1822,10 +10442,8 @@
           <t>Computer Communication</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="F2" t="n">
+        <v>5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1896,10 +10514,8 @@
           <t>Algorithms and Data Structures</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F3" t="n">
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1970,10 +10586,8 @@
           <t>Machine Learning</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F4" t="n">
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2044,10 +10658,8 @@
           <t>Parallel computing</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F5" t="n">
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2118,10 +10730,8 @@
           <t>Compiler Design</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F6" t="n">
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2192,10 +10802,8 @@
           <t>Graphs and Social Networks</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F7" t="n">
+        <v>4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2266,10 +10874,8 @@
           <t>Advanced Algorithms</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F8" t="n">
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2340,10 +10946,8 @@
           <t>Full Stack Development</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F9" t="n">
+        <v>4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2414,10 +11018,8 @@
           <t>Internet of Things</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F10" t="n">
+        <v>4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2488,10 +11090,8 @@
           <t>Semiconductor Devices</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F11" t="n">
+        <v>4</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2562,10 +11162,8 @@
           <t>Cryptography &amp; Security</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F12" t="n">
+        <v>4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2636,10 +11234,8 @@
           <t>User Interaction</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F13" t="n">
+        <v>4</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2710,10 +11306,8 @@
           <t>AI in Biomedical Engineering</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F14" t="n">
+        <v>4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2784,10 +11378,8 @@
           <t>Environmental Studies</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F15" t="n">
+        <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2831,6 +11423,718 @@
       <c r="P15" t="inlineStr">
         <is>
           <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Courses</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EC368, DE351, EC358</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, CS366</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_pre_mid_timetable.xlsx
@@ -876,16 +876,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="E5" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>27.5</v>
+        <v>31.25</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1114,16 +1114,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1774,16 +1774,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1910,16 +1910,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L403]</t>
+          <t>DS302 (Lab) [C004]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L407]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L407]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C002, C102, C302, C303, C304</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C104, C303, C304, C305</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, C101, C304, C305</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C001, C305, L402</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C002, C004, C304, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C003, C004, C305, L402, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C004, C104, L402, L403, L404, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C002, C102, C302, C303, C304</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C003, C104, C303, C304, C305</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004, C101, C304, C305</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001, C305, L402</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C004, C304, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C003, C004, C305, L402, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C004, C102, L402, L403, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C004, C104, L402, L403, L404, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C004, C101, L403, L404, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C001, C004, L404, L405, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3656,21 +3656,21 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -3892,17 +3892,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -3916,7 +3916,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -3975,7 +3975,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -4000,22 +4000,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4034,12 +4034,12 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -4059,12 +4059,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -4093,12 +4093,12 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -4118,27 +4118,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -4151,17 +4151,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -4181,27 +4181,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -4214,17 +4214,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -4244,27 +4244,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -4277,17 +4277,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -4307,27 +4307,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -4340,17 +4340,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -4370,27 +4370,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -4401,15 +4401,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -4429,27 +4433,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -4460,15 +4464,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4496,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I22" t="b">
         <v>0</v>
       </c>
@@ -4518,12 +4530,12 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -4543,12 +4555,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4574,19 +4586,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -4606,27 +4614,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -4644,12 +4652,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -4669,27 +4677,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -4707,12 +4715,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -4732,27 +4740,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -4770,12 +4778,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -4795,12 +4803,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4828,7 +4836,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -4838,7 +4846,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -4858,27 +4866,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -4889,19 +4897,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -4926,22 +4930,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -4952,19 +4956,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -5173,27 +5173,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -5211,12 +5211,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -5236,27 +5236,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5269,17 +5269,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -5299,27 +5299,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -5332,17 +5332,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -5362,27 +5362,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -5395,17 +5395,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -5425,27 +5425,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -5463,12 +5463,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -5488,27 +5488,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -5551,27 +5551,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -5614,12 +5614,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -5645,19 +5645,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -5682,7 +5678,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -5708,19 +5704,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -5745,20 +5737,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
@@ -5769,17 +5765,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -5804,22 +5800,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -5830,15 +5826,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -5863,22 +5863,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -5889,15 +5889,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -5917,27 +5921,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -5950,17 +5954,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -5980,27 +5984,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -6018,12 +6022,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -6043,27 +6047,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -6081,12 +6085,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -6106,27 +6110,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -6144,12 +6148,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -6169,27 +6173,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -6207,12 +6211,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -6232,27 +6236,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -6270,12 +6274,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -6295,27 +6299,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -6328,17 +6332,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -6358,12 +6362,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6378,7 +6382,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -6389,19 +6393,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -6421,12 +6421,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6452,19 +6452,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -6484,25 +6480,29 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I54" t="b">
         <v>0</v>
       </c>
@@ -6511,3200 +6511,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>5</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>5</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>5</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>5</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>5</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>5</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>5</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>5</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>5</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>5</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>5</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>5</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>5</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>5</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>5</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>5</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>5</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>5</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>5</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>5</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>5</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>5</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>DS303</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>DS303</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>5</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>5</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>5</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>5</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>5</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>DS302 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>5</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>DS302 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>5</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>5</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>5</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>5</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>5</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>5</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>5</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>5</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>5</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>5</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>5</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>5</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>5</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>5</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>5</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>5</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>5</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>5</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>5</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>5</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>5</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>5</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>5</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_pre_mid_timetable.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,54 +479,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS303 [C004]</t>
+          <t>DS302 [C101]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS303 [C004]</t>
+          <t>DS302 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,91 +543,91 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS303 [C101]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS303 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C004]</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -639,27 +639,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>DS302 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L406]</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -671,32 +671,96 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L101]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial) [C004]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [C305]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial) [C301]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [C204]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L101]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C101]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C101]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C101]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C101]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -876,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>31.25</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -910,16 +974,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1454,16 +1518,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1590,16 +1654,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1910,16 +1974,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1972,7 +2036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,54 +2079,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS303 [C004]</t>
+          <t>DS302 [C101]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS303 [C004]</t>
+          <t>DS302 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2079,91 +2143,91 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS303 [C101]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS303 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C004]</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2175,27 +2239,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>DS302 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2207,32 +2271,96 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L107]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial) [C004]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [C305]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial) [C301]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C101]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C101]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C101]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C101]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -2275,165 +2403,177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC368</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DE351</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C002, C003</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C104</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C004, C101</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003, C102</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C004, C104</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C101</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2443,14 +2583,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2467,7 +2607,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2477,82 +2617,78 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C104</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C004, C101</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2562,43 +2698,35 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C004, C104</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2611,7 +2739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2709,7 +2837,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C305, C004</t>
+          <t>C101, C204</t>
         </is>
       </c>
     </row>
@@ -2756,39 +2884,39 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101, C301</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B3**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2803,7 +2931,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C101, L101</t>
         </is>
       </c>
     </row>
@@ -2904,92 +3032,45 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Total Courses: 5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Complete: 0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>Rate: 0.0%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>Lectures: 10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>Labs: 4</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>L406, C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Total Courses: 6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Complete: 0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Rate: 0.0%</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lectures: 12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[WARN] 6 issues</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -3006,7 +3087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3064,26 +3145,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>120</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Proj+AC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3091,23 +3170,23 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial), DS302, DS302 (Tutorial)...</t>
+          <t>DS302, MINOR: Cybersecurity, DS303...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3115,14 +3194,12 @@
           <t>classroom</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+      <c r="C3" t="n">
+        <v>60</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Proj</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -3150,7 +3227,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C301</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3158,18 +3235,16 @@
           <t>classroom</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="C4" t="n">
+        <v>50</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Proj</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3181,10 +3256,51 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>L101</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>lab</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Computers+Proj</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>CS307 (Lab)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -3201,7 +3317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3275,6 +3391,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3297,22 +3418,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -3326,12 +3447,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3356,22 +3482,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -3385,12 +3511,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3415,22 +3546,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -3444,12 +3575,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3474,22 +3610,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -3503,12 +3639,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3528,27 +3669,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -3562,12 +3703,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3587,27 +3733,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Physics Lab</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Physics Equipment</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -3621,12 +3767,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C301</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3646,31 +3797,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -3680,12 +3831,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3866,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3725,7 +3881,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -3739,12 +3895,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3764,7 +3925,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3774,17 +3935,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -3798,12 +3959,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3823,27 +3989,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -3857,12 +4023,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3882,7 +4053,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3892,17 +4063,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -3916,12 +4087,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -3941,7 +4117,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3951,17 +4127,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -3975,12 +4151,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4000,12 +4181,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4028,18 +4209,23 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4059,12 +4245,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4087,18 +4273,23 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4118,27 +4309,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -4146,22 +4337,23 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4181,27 +4373,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -4209,22 +4401,23 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4244,27 +4437,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -4272,22 +4465,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4501,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4317,17 +4511,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -4335,22 +4529,23 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4370,27 +4565,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -4398,22 +4593,23 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4433,27 +4629,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -4461,22 +4657,23 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4496,12 +4693,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4524,18 +4721,23 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4555,12 +4757,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4583,18 +4785,23 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4614,27 +4821,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -4647,17 +4854,22 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4677,12 +4889,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4710,7 +4922,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -4720,7 +4932,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4740,27 +4957,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -4773,17 +4990,22 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4803,27 +5025,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -4836,17 +5058,22 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4866,29 +5093,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="b">
         <v>0</v>
       </c>
@@ -4897,15 +5120,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4925,12 +5157,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -4956,15 +5188,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4984,27 +5225,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -5022,12 +5263,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
           <t>CS463</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5047,12 +5293,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5091,6 +5337,11 @@
       <c r="M31" t="inlineStr">
         <is>
           <t>CS308</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5110,27 +5361,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5148,12 +5399,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
           <t>DS301</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5173,29 +5429,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -5211,12 +5463,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
           <t>CS366</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5241,22 +5498,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5269,17 +5526,22 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5304,7 +5566,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -5332,7 +5594,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -5342,7 +5604,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5367,22 +5634,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -5395,17 +5662,22 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5430,22 +5702,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -5458,17 +5730,22 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5498,17 +5775,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -5526,12 +5803,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5561,17 +5843,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -5589,12 +5871,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5619,17 +5906,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -5645,15 +5932,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5673,27 +5969,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -5704,15 +6000,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5732,29 +6037,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="b">
         <v>0</v>
       </c>
@@ -5765,17 +6066,22 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5795,27 +6101,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -5828,17 +6134,22 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5868,17 +6179,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -5896,12 +6207,17 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5964,7 +6280,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5989,22 +6310,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -6017,17 +6338,22 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6052,24 +6378,20 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="b">
         <v>0</v>
       </c>
@@ -6080,17 +6402,22 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6120,19 +6447,15 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="b">
         <v>0</v>
       </c>
@@ -6148,12 +6471,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6183,17 +6511,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -6211,12 +6539,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6246,17 +6579,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -6274,12 +6607,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6309,17 +6647,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -6337,12 +6675,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6367,22 +6710,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -6393,15 +6736,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6421,22 +6773,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -6452,74 +6804,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>5</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>MINOR: Design</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6534,7 +6836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6773,7 +7075,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6830,7 +7132,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6879,63 +7181,6 @@
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3/0/0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/1/0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -7015,7 +7260,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 12:24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7036,11 +7281,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 3, Elective: 3</t>
+          <t>Core: 3, Elective: 2</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7307,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/6 courses fully compliant</t>
+          <t>0/5 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -7079,12 +7324,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3/36</t>
+          <t>4/16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 8.3%</t>
+          <t>Utilization: 25.0%</t>
         </is>
       </c>
     </row>
@@ -7101,12 +7346,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>31.1%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 60.0%, B: 0.0%</t>
+          <t>A: 62.2%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -7128,7 +7373,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 33.0/100</t>
+          <t>Score: 33.3/100</t>
         </is>
       </c>
     </row>
@@ -8252,7 +8497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8310,12 +8555,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8325,16 +8570,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC368, DE351, EC358</t>
+          <t>CS463, CS308, DS301, CS366</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8355,31 +8600,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS463, CS308, DS301, CS366</t>
+          <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -8392,51 +8637,6 @@
         </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>Semester 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
         <is>
           <t>Semester 5</t>
         </is>
@@ -8453,7 +8653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8501,26 +8701,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC368</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -8536,26 +8736,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DE351</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -8571,26 +8771,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC358</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -8611,7 +8811,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8641,26 +8841,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -8676,26 +8876,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -8711,26 +8911,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -8751,7 +8951,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8786,7 +8986,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -8821,7 +9021,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -8843,111 +9043,6 @@
         </is>
       </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/backend/output_timetables/sem5_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_pre_mid_timetable.xlsx
@@ -1110,16 +1110,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1178,16 +1178,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C002, C004, C101</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C003, C004, C101</t>
+          <t>C003, C102</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C003, C102</t>
+          <t>C002, C101, C104</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C002, C004, C104</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C003, C101, C102</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C003, C101</t>
+          <t>C002, C102, C104</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C002, C004, C101</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C003, C004, C101</t>
+          <t>C003, C102</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C002, C004, C104</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -4535,7 +4535,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -4599,7 +4599,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -4831,17 +4831,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -4899,17 +4899,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -5043,11 +5043,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="b">
         <v>0</v>
       </c>
@@ -5063,7 +5059,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5103,15 +5099,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I28" t="b">
         <v>0</v>
       </c>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -5235,17 +5235,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -5303,17 +5303,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -5379,11 +5379,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -5399,7 +5395,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -5444,10 +5440,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -5503,17 +5503,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -5571,17 +5571,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -5644,14 +5644,10 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="b">
         <v>0</v>
       </c>
@@ -5667,7 +5663,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -5712,7 +5708,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -5735,7 +5731,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -5775,12 +5771,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -5803,7 +5799,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -5911,12 +5907,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -5939,7 +5935,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -5979,19 +5975,15 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="b">
         <v>0</v>
       </c>
@@ -6007,7 +5999,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -6047,15 +6039,19 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
@@ -6071,7 +6067,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -6139,7 +6135,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -6179,17 +6175,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -6207,7 +6203,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -6247,17 +6243,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -6275,7 +6271,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -6323,11 +6319,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="b">
         <v>0</v>
       </c>
@@ -6343,7 +6335,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -6388,10 +6380,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I47" t="b">
         <v>0</v>
       </c>
@@ -6407,7 +6403,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -6447,15 +6443,19 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I48" t="b">
         <v>0</v>
       </c>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -6647,17 +6647,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -6715,17 +6715,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -6743,7 +6743,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -6811,7 +6811,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">

--- a/backend/output_timetables/sem5_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_pre_mid_timetable.xlsx
@@ -484,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
     </row>
@@ -516,22 +516,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS302 [C101]</t>
+          <t>DS302 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302 [C101]</t>
+          <t>DS302 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [L402]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS303 [C101]</t>
+          <t>DS303 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS303 [C101]</t>
+          <t>DS303 [L402]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L101]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C301]</t>
+          <t>DS303 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C204]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L101]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -740,27 +740,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
     </row>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>62.5</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1110,16 +1110,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1416,16 +1416,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1518,16 +1518,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1586,16 +1586,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1974,16 +1974,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2084,27 +2084,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
     </row>
@@ -2116,22 +2116,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS302 [C101]</t>
+          <t>DS302 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302 [C101]</t>
+          <t>DS302 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [L402]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS303 [C101]</t>
+          <t>DS303 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS303 [C101]</t>
+          <t>DS303 [L402]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L407]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L105]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2308,12 +2308,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C301]</t>
+          <t>DS303 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L407]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L105]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2340,27 +2340,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
     </row>
@@ -2403,177 +2403,165 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C002, C004, C101</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C003, C102</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C101, C104</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C003, C101, C102</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C002, C102, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2590,7 +2578,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2600,14 +2588,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2617,78 +2605,82 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EC368</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C002, C004, C101</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C003, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2698,35 +2690,43 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DE351</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C104, C202</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2739,7 +2739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C101, C204</t>
+          <t>C004, L207, C101</t>
         </is>
       </c>
     </row>
@@ -2884,39 +2884,39 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C101, C301</t>
+          <t>C303, C004, L402</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C101, L101</t>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
@@ -3032,45 +3032,92 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>**CS307**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Deepak K T</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>C004, L402, L106</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total Courses: 5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Total Courses: 6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Complete: 0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Rate: 0.0%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Lectures: 10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lectures: 12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Labs: 4</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[WARN] 5 issues</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[WARN] 6 issues</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -3087,7 +3134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3145,24 +3192,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>120</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Proj+AC</t>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3170,40 +3214,42 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>DS302, MINOR: Cybersecurity, DS303...</t>
+          <t>MINOR: DSAI, MINOR: VLSI, MINOR: Design...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>60</v>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Proj</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3211,23 +3257,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>CS307, DS303, DS302</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C301</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3235,12 +3281,14 @@
           <t>classroom</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>50</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Proj</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -3256,7 +3304,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -3268,24 +3316,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>lab</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Computers+Proj</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3297,10 +3347,139 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>CS307 (Lab)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>CS307, DS303</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -3317,7 +3496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3353,47 +3532,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Room Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Conflict</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allocation Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Basket</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
         </is>
       </c>
     </row>
@@ -3423,42 +3612,46 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>MINOR: Generative Ai</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3487,42 +3680,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>DS302</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3551,42 +3752,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>DS303</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3610,47 +3819,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
         <is>
           <t>C101</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3674,47 +3891,55 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3738,47 +3963,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Physics Lab</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Physics Equipment</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C301</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3797,52 +4026,56 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3866,47 +4099,55 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3930,47 +4171,55 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3994,47 +4243,55 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4058,47 +4315,55 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>DS302 (Lab)</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4122,47 +4387,51 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4181,52 +4450,56 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4250,47 +4523,55 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4314,47 +4595,51 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4373,52 +4658,56 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4442,47 +4731,55 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4511,42 +4808,50 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>CS307 (Lab)</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4575,42 +4880,50 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>CS307 (Lab)</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4639,42 +4952,46 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>MINOR: Cybersecurity</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4703,42 +5020,46 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>MINOR: DSAI</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4767,42 +5088,46 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>MINOR: Design</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4831,46 +5156,50 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M24" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>DS359</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4899,46 +5228,54 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>EC355</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4967,46 +5304,54 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>EC364</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5035,42 +5380,54 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>CS352</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5099,46 +5456,54 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5167,46 +5532,54 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>EC365</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5235,46 +5608,54 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Auditorium</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Audio/Video System</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>C004</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>CS463</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5303,46 +5684,50 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>CS308</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5371,42 +5756,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>DS301</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5435,46 +5832,54 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>CS366</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5503,46 +5908,54 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Auditorium</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>Audio/Video System</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>C004</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>CS463</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5571,46 +5984,50 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>CS308</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5639,42 +6056,54 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>DS301</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5703,46 +6132,54 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>CS366</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -5771,46 +6208,50 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
           <t>DS359</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5839,46 +6280,54 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
           <t>EC355</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -5907,46 +6356,54 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>C101</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>EC364</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -5975,42 +6432,54 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>CS352</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -6039,46 +6508,54 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -6107,46 +6584,54 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>EC365</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -6175,46 +6660,54 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Auditorium</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Audio/Video System</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>C004</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>CS463</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -6243,46 +6736,50 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>CS308</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -6311,42 +6808,54 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>DS301</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -6375,46 +6884,54 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>CS366</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -6443,46 +6960,50 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M48" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>DS359</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -6511,46 +7032,54 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M49" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>EC355</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -6579,46 +7108,54 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M50" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
           <t>EC364</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -6647,46 +7184,54 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M51" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
           <t>CS352</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -6715,46 +7260,54 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M52" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -6783,46 +7336,54 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
           <t>EC365</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6836,7 +7397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7075,7 +7636,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7132,55 +7693,112 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>3-0-0-0-3</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>3/0/0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2/1/0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0/0/0</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[FAIL]</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[WARN] PARTIAL</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -7260,7 +7878,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-19 12:24</t>
+          <t>2026-01-26 01:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7281,11 +7899,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 3, Elective: 2</t>
+          <t>Core: 3, Elective: 3</t>
         </is>
       </c>
     </row>
@@ -7307,7 +7925,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/5 courses fully compliant</t>
+          <t>0/6 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -7324,12 +7942,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4/16</t>
+          <t>7/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 25.0%</t>
+          <t>Utilization: 19.4%</t>
         </is>
       </c>
     </row>
@@ -7346,12 +7964,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>31.1%</t>
+          <t>34.4%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 62.2%, B: 0.0%</t>
+          <t>A: 68.9%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -7373,7 +7991,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 33.3/100</t>
+          <t>Score: 34.3/100</t>
         </is>
       </c>
     </row>
@@ -8497,7 +9115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8555,31 +9173,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Tue</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS463, CS308, DS301, CS366</t>
+          <t>EC368, DE351, EC358</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8600,43 +9218,88 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, CS366</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Mon</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Thu</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F4" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>A &amp; B (Common)</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>DSAI</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Semester 5</t>
         </is>
@@ -8653,7 +9316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8701,26 +9364,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC368</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -8736,26 +9399,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DE351</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -8771,26 +9434,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC358</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -8811,7 +9474,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8841,26 +9504,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -8876,26 +9539,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -8911,26 +9574,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -8951,7 +9614,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8986,7 +9649,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -9021,7 +9684,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -9043,6 +9706,111 @@
         </is>
       </c>
       <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/backend/output_timetables/sem5_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_pre_mid_timetable.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [L402]</t>
+          <t>CS307 [C304]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C303]</t>
+          <t>DS303 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1586,16 +1586,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1620,16 +1620,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [L402]</t>
+          <t>CS307 [C304]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2308,12 +2308,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C303]</t>
+          <t>DS303 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C104, C202</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, L207, C101</t>
+          <t>C004, L106, C101</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C303, C004, L402</t>
+          <t>C004, L402, C101</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3042,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, L402, L106</t>
+          <t>C004, L207, C304</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI, MINOR: VLSI, MINOR: Design...</t>
+          <t>MINOR: Cybersecurity, MINOR: Generative Ai, MINOR: Design...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS307, DS303, DS302</t>
+          <t>DS302, CS307, DS303</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3300,23 +3300,23 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>DS302 (Tutorial), DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -3472,16 +3472,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CS307, DS303</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -3925,7 +3925,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4277,7 +4277,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4349,7 +4349,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4765,7 +4765,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4837,7 +4837,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -4909,7 +4909,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5233,12 +5233,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5613,17 +5613,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5689,15 +5689,19 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
@@ -5713,7 +5717,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -5761,12 +5765,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -5789,7 +5793,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5847,7 +5851,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -5865,7 +5869,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -5913,17 +5917,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -5941,7 +5945,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -5989,15 +5993,19 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
@@ -6013,7 +6021,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6061,12 +6069,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -6089,7 +6097,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6147,7 +6155,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6165,7 +6173,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6285,12 +6293,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -6313,7 +6321,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6371,7 +6379,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -6389,7 +6397,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6447,7 +6455,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6465,7 +6473,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6523,7 +6531,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -6541,7 +6549,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6665,17 +6673,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -6693,7 +6701,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -6741,15 +6749,19 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
@@ -6765,7 +6777,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -6813,12 +6825,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -6841,7 +6853,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -6899,7 +6911,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -6917,7 +6929,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7037,12 +7049,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -7065,7 +7077,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7123,7 +7135,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -7141,7 +7153,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7199,7 +7211,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -7217,7 +7229,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7275,7 +7287,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -7293,7 +7305,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -7475,12 +7487,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3/1/0</t>
+          <t>3/0/2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -7500,12 +7512,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[OK]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -7878,7 +7890,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8006,7 +8018,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9029,78 +9041,6 @@
       <c r="P14" t="inlineStr">
         <is>
           <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>HS101</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Environmental Studies</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0-0-0-8-2</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Aswath Babu H</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_pre_mid_timetable.xlsx
@@ -484,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -516,22 +516,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>DS302 [C102]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>DS302 [L402]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [C304]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS303 [C004]</t>
+          <t>DS303 [C101]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L106]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C101]</t>
+          <t>DS303 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L106]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -740,27 +740,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1178,16 +1178,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1586,16 +1586,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1620,16 +1620,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2084,27 +2084,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -2116,22 +2116,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>DS302 [C102]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>DS302 [L402]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [C304]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS303 [C004]</t>
+          <t>DS303 [C101]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L106]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2308,12 +2308,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C101]</t>
+          <t>DS303 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L106]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2340,27 +2340,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, L106, C101</t>
+          <t>C101, L402, L107, C102</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004, L402, C101</t>
+          <t>C101, L402, C303</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, L207, C304</t>
+          <t>C101, L207, C102</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,21 +3192,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3214,42 +3219,42 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity, MINOR: Generative Ai, MINOR: Design...</t>
+          <t>CS307, DS302 (Tutorial), DS303</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3257,23 +3262,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>DS302, CS307, DS303</t>
+          <t>DS302, MINOR: Generative Ai, MINOR: Design...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3288,11 +3293,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3300,42 +3305,42 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial), DS303 (Tutorial)</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3347,19 +3352,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3390,7 +3395,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3402,22 +3407,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -3429,59 +3434,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS302, DS303</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>DS303</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3617,15 +3579,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
@@ -3637,7 +3603,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -3685,17 +3651,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -3709,7 +3675,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -3757,17 +3723,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -3781,7 +3747,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -3911,7 +3877,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -3925,7 +3891,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -3973,15 +3939,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
@@ -3993,7 +3963,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -4041,15 +4011,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -4061,7 +4035,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4109,17 +4083,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -4133,7 +4107,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -4277,7 +4251,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4349,7 +4323,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4397,15 +4371,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
@@ -4417,7 +4395,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4465,15 +4443,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
@@ -4485,7 +4467,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -4533,17 +4515,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -4557,7 +4539,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4605,15 +4587,19 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
@@ -4625,7 +4611,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -4673,15 +4659,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -4693,7 +4683,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -4751,7 +4741,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -4765,7 +4755,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4957,15 +4947,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -4977,7 +4971,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5025,15 +5019,19 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
@@ -5045,7 +5043,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5093,15 +5091,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
@@ -5113,7 +5115,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5161,15 +5163,19 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
@@ -5185,7 +5191,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5261,7 +5267,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5319,7 +5325,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -5337,7 +5343,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5395,7 +5401,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -5413,7 +5419,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5489,7 +5495,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5547,7 +5553,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -5565,7 +5571,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5641,7 +5647,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5717,7 +5723,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -5793,7 +5799,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5851,7 +5857,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -5869,7 +5875,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -5945,7 +5951,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6021,7 +6027,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6097,7 +6103,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6155,7 +6161,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6173,7 +6179,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6221,15 +6227,19 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
@@ -6245,7 +6255,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6321,7 +6331,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6379,7 +6389,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -6397,7 +6407,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6455,7 +6465,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6473,7 +6483,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6549,7 +6559,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6607,7 +6617,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -6625,7 +6635,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -6701,7 +6711,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -6777,7 +6787,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -6853,7 +6863,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -6911,7 +6921,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -6929,7 +6939,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -6977,15 +6987,19 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
@@ -7001,7 +7015,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7077,7 +7091,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7135,7 +7149,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -7153,7 +7167,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7211,7 +7225,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -7229,7 +7243,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7305,7 +7319,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -7363,7 +7377,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -7381,7 +7395,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -7890,7 +7904,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7954,12 +7968,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7/36</t>
+          <t>6/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 19.4%</t>
+          <t>Utilization: 16.7%</t>
         </is>
       </c>
     </row>
